--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Mtwara_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Mtwara_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2260" windowWidth="23580" windowHeight="13660" tabRatio="500" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="-460" yWindow="0" windowWidth="23580" windowHeight="13660" tabRatio="500" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2927,12 +2922,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>223120.83051140129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2956,7 +2951,7 @@
         <v>49393.276530642324</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2964,7 +2959,7 @@
         <v>58075.946423114336</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2980,7 +2975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2992,6 +2987,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3003,12 +3003,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3614,6 +3614,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3625,13 +3630,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3667,7 +3672,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3686,7 +3691,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3705,7 +3710,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3724,7 +3729,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3743,7 +3748,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3762,7 +3767,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3781,7 +3786,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3800,113 +3805,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3918,9 +3928,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3934,7 +3944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3950,6 +3960,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3959,12 +3974,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -4004,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4024,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4066,6 +4081,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4077,9 +4097,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4099,7 +4119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4121,6 +4141,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4132,9 +4157,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4148,7 +4173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4164,6 +4189,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4175,12 +4205,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4200,7 +4230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4220,7 +4250,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4228,7 +4258,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4236,7 +4266,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4247,6 +4277,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4256,12 +4291,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4281,7 +4316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4301,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4341,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4363,6 +4398,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4372,13 +4412,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4398,7 +4438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4420,6 +4460,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4429,12 +4474,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4451,7 +4496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4468,14 +4513,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4484,6 +4529,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4495,13 +4545,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4509,7 +4559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4517,7 +4567,7 @@
         <v>50347.764999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4525,7 +4575,7 @@
         <v>51302.224999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4533,7 +4583,7 @@
         <v>52495.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4541,7 +4591,7 @@
         <v>53449.760000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4549,7 +4599,7 @@
         <v>54404.22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4557,7 +4607,7 @@
         <v>55597.294999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4565,7 +4615,7 @@
         <v>56790.37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4573,7 +4623,7 @@
         <v>57744.83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4581,7 +4631,7 @@
         <v>59176.520000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4589,7 +4639,7 @@
         <v>60369.595000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4597,7 +4647,7 @@
         <v>61562.670000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4605,7 +4655,7 @@
         <v>62755.745000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4613,7 +4663,7 @@
         <v>64187.435000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4623,6 +4673,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4630,11 +4685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4642,7 +4697,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4656,7 +4711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4673,7 +4728,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4690,7 +4745,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4704,7 +4759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4721,7 +4776,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4738,12 +4793,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37">
-        <v>0</v>
+      <c r="B7" s="32">
+        <v>0.13021337211389736</v>
       </c>
       <c r="C7" s="36">
         <v>0.95</v>
@@ -4755,72 +4810,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4828,6 +4883,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4835,9 +4895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4847,7 +4907,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4872,7 +4932,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4895,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4920,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4944,7 +5004,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4967,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4990,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5013,65 +5073,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5079,6 +5139,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5090,12 +5155,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5115,7 +5180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5135,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5154,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5174,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5191,14 +5256,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5208,6 +5273,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5219,12 +5289,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5247,7 +5317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5270,7 +5340,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5290,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5313,7 +5383,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5337,6 +5407,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5348,12 +5423,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5376,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5399,7 +5474,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5419,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5445,7 +5520,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5469,6 +5544,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5480,12 +5560,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5508,7 +5588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5531,7 +5611,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5551,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5577,7 +5657,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5601,6 +5681,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5612,9 +5697,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5625,7 +5710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>47</v>
       </c>
@@ -5640,6 +5725,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5651,12 +5741,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5676,7 +5766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5696,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5716,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5736,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5756,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5776,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5796,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5816,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5836,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5856,7 +5946,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5876,7 +5966,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5896,7 +5986,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5916,7 +6006,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5936,7 +6026,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5956,7 +6046,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5976,7 +6066,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5996,7 +6086,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6023,6 +6113,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6034,9 +6129,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6059,7 +6154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6087,7 +6182,7 @@
         <v>20.401614183110063</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6112,7 +6207,7 @@
         <v>36.451612561075983</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6132,7 +6227,7 @@
         <v>27.650619409660116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6152,7 +6247,7 @@
         <v>15.496153846153845</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6175,7 +6270,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6195,7 +6290,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6215,7 +6310,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6235,7 +6330,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6259,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6279,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6299,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6327,6 +6422,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6338,9 +6438,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6351,7 +6451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>2.0165116279069771E-2</v>
       </c>
@@ -6364,6 +6464,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6375,9 +6480,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6397,7 +6502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6417,7 +6522,7 @@
         <v>3.1660550847457629</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6441,6 +6546,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6450,9 +6560,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6475,7 +6585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6498,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6518,7 +6628,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6538,7 +6648,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6558,7 +6668,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6581,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6601,7 +6711,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6621,7 +6731,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6641,7 +6751,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6664,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6684,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6704,7 +6814,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6724,7 +6834,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6747,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6767,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6787,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6807,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6830,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6850,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6870,7 +6980,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6892,6 +7002,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6901,9 +7016,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +7041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6949,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6969,7 +7084,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6989,7 +7104,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7009,7 +7124,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7032,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7052,7 +7167,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7072,7 +7187,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7092,7 +7207,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7115,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7135,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7155,7 +7270,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7175,7 +7290,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7198,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7218,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7238,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7258,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7281,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7301,7 +7416,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7321,7 +7436,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7343,5 +7458,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>